--- a/Data_files/service.xlsx
+++ b/Data_files/service.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Title</t>
   </si>
@@ -114,9 +114,6 @@
     <t>School of Medicine</t>
   </si>
   <si>
-    <t>One Northwestern’s Task Force on Integrated Enterprise</t>
-  </si>
-  <si>
     <t>Office of the Provost</t>
   </si>
   <si>
@@ -171,21 +168,12 @@
     <t>Editor</t>
   </si>
   <si>
-    <t>Journal of Statistical Mechanics: Theory and Experiments</t>
-  </si>
-  <si>
     <t>Institute of Physics (IOP) and SISSA</t>
   </si>
   <si>
     <t>Program Committee</t>
   </si>
   <si>
-    <t>5th Int’l Workshop on Biosignal Interpretation</t>
-  </si>
-  <si>
-    <t>Int’l Federation for Medical and Biological Engineering, Int’l Medical Informatics Association, IEEE Engineering in Medicine and Biology, Japan Society of Medical Electronics and Biomedical Engineering</t>
-  </si>
-  <si>
     <t>Guest Editor</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
   </si>
   <si>
     <t>Modeling and Simulation Workshop</t>
-  </si>
-  <si>
-    <t>Department of Homeland Security — Science and Technology</t>
   </si>
   <si>
     <t>Spark Council</t>
@@ -310,10 +295,28 @@
     <t>Organizer and Chair</t>
   </si>
   <si>
-    <t>Faculty Workshop on “Big Data”</t>
-  </si>
-  <si>
-    <t>L. Dumas Domain Dinner on “Big Data”</t>
+    <t>Department of Homeland Security -- Science and Technology</t>
+  </si>
+  <si>
+    <t>Journal of Statistical Mechanics: Theory and Experiment</t>
+  </si>
+  <si>
+    <t>5th International Workshop on Biosignal Interpretation</t>
+  </si>
+  <si>
+    <t>International Federation for Medical and Biological Engineering, International Medical Informatics Association, IEEE Engineering in Medicine and Biology, Japan Society of Medical Electronics and Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Graduate Program</t>
+  </si>
+  <si>
+    <t>L. Dumas Domain Dinner on Big Data</t>
+  </si>
+  <si>
+    <t>Faculty Workshop on Big Data</t>
+  </si>
+  <si>
+    <t>One Northwestern Task Force on Integrated Enterprise</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,13 +707,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -744,13 +747,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -764,13 +767,13 @@
         <v>2005</v>
       </c>
       <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -784,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,13 +867,13 @@
         <v>2009</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,13 +907,13 @@
         <v>2009</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,13 +928,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -967,13 +970,13 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -988,13 +991,13 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1030,13 +1033,13 @@
         <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -1266,10 +1269,10 @@
         <v>2006</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1310,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1331,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1352,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1391,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1478,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1499,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1517,10 +1520,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1538,10 +1541,10 @@
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -1562,10 +1565,10 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1583,10 +1586,10 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1601,13 +1604,13 @@
         <v>2011</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1622,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1643,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1664,13 +1667,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1688,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1706,13 +1709,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data_files/service.xlsx
+++ b/Data_files/service.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1700" windowWidth="28160" windowHeight="15140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="1700" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="External Service" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Title</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Reviewer</t>
   </si>
   <si>
-    <t>Nature, Science, JAMA, PNAS, Royal Society journals, AIChE Journal, Physical Review journals, PLOS journals, BMC journals, etc.</t>
-  </si>
-  <si>
     <t>Organizer</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Chicago Biomedical Consortium</t>
   </si>
   <si>
-    <t xml:space="preserve">Advisory Board </t>
-  </si>
-  <si>
     <t>Complex Systems Program</t>
   </si>
   <si>
@@ -264,34 +258,12 @@
     <t>Graduate Studies Committee</t>
   </si>
   <si>
-    <t>Co-chair</t>
-  </si>
-  <si>
-    <t>Purple Sky Workgroup, Strategic Plan</t>
-  </si>
-  <si>
-    <t>Committee Chair</t>
-  </si>
-  <si>
     <t xml:space="preserve">NUIN Graduate Program Review </t>
   </si>
   <si>
     <t xml:space="preserve">Data Science Initiative </t>
   </si>
   <si>
-    <r>
-      <t>Steering Committee Chair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF141413"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Organizer and Chair</t>
   </si>
   <si>
@@ -317,13 +289,67 @@
   </si>
   <si>
     <t>One Northwestern Task Force on Integrated Enterprise</t>
+  </si>
+  <si>
+    <t>International Workshop on Complex Networks and their Applications</t>
+  </si>
+  <si>
+    <t>Advisory Council on Women Faculty</t>
+  </si>
+  <si>
+    <t>Advisory Council on Faculty Diversity and Excellence</t>
+  </si>
+  <si>
+    <t>Nature and Nature Journals, Science and Science Journals, JAMA, PNAS, Royal Society journals, AIChE Journal, Physical Review journals, PLOS journals, BMC journals, etc.</t>
+  </si>
+  <si>
+    <t>3rd International Conference on Computational Social Science</t>
+  </si>
+  <si>
+    <t>Office of the President</t>
+  </si>
+  <si>
+    <t>Steering Committee</t>
+  </si>
+  <si>
+    <t>One Book</t>
+  </si>
+  <si>
+    <t>Graduate Studies</t>
+  </si>
+  <si>
+    <t>Co-chair, Purple Sky Workgroup</t>
+  </si>
+  <si>
+    <t>Strategic Plan</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Workshop on Network Science</t>
+  </si>
+  <si>
+    <t>Advisory Board</t>
+  </si>
+  <si>
+    <t>Steering Committee Chair</t>
+  </si>
+  <si>
+    <t>Leibniz Institute for the Social Sciences</t>
+  </si>
+  <si>
+    <t>Italian Society for Chaos and Complexity (SICC)</t>
+  </si>
+  <si>
+    <t>Society for Industrial and Applied Mathematics (SIAM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,9 +366,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color rgb="FF141413"/>
-      <name val="Times"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,20 +414,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +730,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -700,7 +741,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1995</v>
       </c>
       <c r="C2" t="s">
@@ -713,34 +754,34 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2003</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3">
+        <v>2005</v>
       </c>
       <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2004</v>
       </c>
       <c r="C4" t="s">
@@ -753,167 +794,167 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2004</v>
       </c>
       <c r="C5">
         <v>2005</v>
       </c>
       <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2004</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2006</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2006</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2006</v>
       </c>
       <c r="C10">
         <v>2009</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>2008</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>2008</v>
       </c>
       <c r="C12">
         <v>2009</v>
       </c>
       <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -921,41 +962,41 @@
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>2009</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="C13">
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:A18" si="0">A13+1</f>
+        <f t="shared" ref="A14:A21" si="0">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2010</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,20 +1004,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2010</v>
       </c>
       <c r="C15">
         <v>2016</v>
       </c>
       <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,20 +1025,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>2011</v>
       </c>
       <c r="C16">
         <v>2013</v>
       </c>
       <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
         <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,20 +1046,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>2011</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,20 +1067,83 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2013</v>
       </c>
       <c r="C18">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,9 +1196,9 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1109,7 +1213,7 @@
         <v>2005</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1129,7 +1233,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1169,7 +1273,7 @@
         <v>2006</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1189,7 +1293,7 @@
         <v>2005</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1209,7 +1313,7 @@
         <v>2005</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1229,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1249,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1269,10 +1373,10 @@
         <v>2006</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1289,7 +1393,7 @@
         <v>2006</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1313,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1334,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1355,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1373,7 +1477,7 @@
         <v>2006</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1394,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1415,7 +1519,7 @@
         <v>2007</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1426,7 +1530,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A32" si="1">A18+1</f>
+        <f t="shared" ref="A19:A35" si="1">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1436,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1457,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -1478,10 +1582,10 @@
         <v>2008</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -1499,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1520,10 +1624,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1541,10 +1645,10 @@
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -1562,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -1583,7 +1687,7 @@
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
@@ -1604,10 +1708,10 @@
         <v>2011</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1625,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
@@ -1646,10 +1750,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
         <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -1667,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -1688,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1709,16 +1813,80 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="C33">
+        <v>2017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2016</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2016</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data_files/service.xlsx
+++ b/Data_files/service.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/PycharmProjects/maintaining_latex_cv/Data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/Box Sync/CodingProjects/maintaining_latex_cv/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E3648-3F83-0F41-B8D0-82C916B71AE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1700" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="1700" windowWidth="30880" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="External Service" sheetId="2" r:id="rId1"/>
     <sheet name="Northwestern University Service" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
   <si>
     <t>Title</t>
   </si>
@@ -153,9 +154,6 @@
     <t>Center for Scientific Review, National Science Foundation, U.S. Department of Energy, U.S. Department of Defense</t>
   </si>
   <si>
-    <t>Organizing Committee</t>
-  </si>
-  <si>
     <t>11th Frontiers of Engineering Symposium</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>Institute of Physics (IOP) and SISSA</t>
   </si>
   <si>
-    <t>Program Committee</t>
-  </si>
-  <si>
     <t>Guest Editor</t>
   </si>
   <si>
@@ -210,24 +205,15 @@
     <t>James S. McDonnell Foundation</t>
   </si>
   <si>
-    <t>Selection Committee</t>
-  </si>
-  <si>
     <t>CBC Junior Scholar</t>
   </si>
   <si>
-    <t>Editorial Advisory Board</t>
-  </si>
-  <si>
     <t>Nature Communications</t>
   </si>
   <si>
     <t>Nature Publishing Group</t>
   </si>
   <si>
-    <t>Editorial Board</t>
-  </si>
-  <si>
     <t>Am. J. Respiratory and Critical Care Medicine</t>
   </si>
   <si>
@@ -330,9 +316,6 @@
     <t>Workshop on Network Science</t>
   </si>
   <si>
-    <t>Advisory Board</t>
-  </si>
-  <si>
     <t>Steering Committee Chair</t>
   </si>
   <si>
@@ -343,12 +326,42 @@
   </si>
   <si>
     <t>Society for Industrial and Applied Mathematics (SIAM)</t>
+  </si>
+  <si>
+    <t>Advisory Board Member</t>
+  </si>
+  <si>
+    <t>Masters in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Dept. of Electric Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>Organizing Committee Member</t>
+  </si>
+  <si>
+    <t>Program Committee Member</t>
+  </si>
+  <si>
+    <t>Selection Committee Member</t>
+  </si>
+  <si>
+    <t>Editorial Board Member</t>
+  </si>
+  <si>
+    <t>Editorial Advisory Board Member</t>
+  </si>
+  <si>
+    <t>COMBINE Program</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -439,6 +452,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,13 +824,13 @@
         <v>2005</v>
       </c>
       <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -828,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -868,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -888,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -908,13 +924,13 @@
         <v>2009</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -928,13 +944,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,13 +964,13 @@
         <v>2009</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,18 +985,18 @@
         <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:A21" si="0">A13+1</f>
+        <f t="shared" ref="A14:A22" si="0">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="3">
@@ -990,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,13 +1027,13 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1032,13 +1048,13 @@
         <v>2013</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,13 +1069,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,13 +1090,13 @@
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,10 +1111,10 @@
         <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1116,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,13 +1153,34 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1152,11 +1189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1376,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1417,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1438,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -1459,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -1501,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1530,7 +1567,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A35" si="1">A18+1</f>
+        <f t="shared" ref="A19:A36" si="1">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1585,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
@@ -1606,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1624,10 +1661,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1645,10 +1682,10 @@
         <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -1708,10 +1745,10 @@
         <v>2011</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1729,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
@@ -1750,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -1771,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -1813,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
@@ -1834,13 +1871,13 @@
         <v>2017</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1858,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -1879,10 +1916,31 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
